--- a/WWW/posts/appendix-function/post_info.xlsx
+++ b/WWW/posts/appendix-function/post_info.xlsx
@@ -95,8 +95,7 @@
     <t>Author Name</t>
   </si>
   <si>
-    <t>
-Kelly McGill</t>
+    <t>Kelly McGill</t>
   </si>
   <si>
     <t>This string can change in between posts, and is what will actually be displayed on the website as your name.</t>
@@ -462,15 +461,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>139680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>617040</xdr:colOff>
+      <xdr:colOff>643680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>216360</xdr:rowOff>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -483,8 +482,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="112680" y="38520"/>
-          <a:ext cx="504360" cy="571320"/>
+          <a:off x="139680" y="29520"/>
+          <a:ext cx="504000" cy="570960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,8 +505,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,7 +787,7 @@
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="n">
-        <v>43957</v>
+        <v>43962</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
